--- a/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>25/01/2022 09:06</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">

--- a/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25/01/2022 09:06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">

--- a/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
@@ -506,11 +506,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -584,11 +579,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -662,11 +652,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -740,11 +725,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -818,11 +798,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -896,11 +871,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -974,11 +944,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1052,11 +1017,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1130,11 +1090,6 @@
           <t>Saltwater</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1206,11 +1161,6 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Fjords</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">

--- a/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_3/P12_3_minimal_metadata.xlsx
@@ -506,6 +506,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -579,6 +584,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -652,6 +662,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -725,6 +740,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -798,6 +818,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -871,6 +896,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -944,6 +974,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1017,6 +1052,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1090,6 +1130,11 @@
           <t>Saltwater</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Mariager fjord</t>
@@ -1161,6 +1206,11 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
